--- a/numpy_pandas_matplotlib/bug_copy.xlsx
+++ b/numpy_pandas_matplotlib/bug_copy.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xiaozhan" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="xiaozhan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
@@ -17,8 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,20 +59,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -503,7 +505,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -628,7 +630,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -646,6 +648,154 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>create_date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B7" t="n">
+        <v>53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>